--- a/data/RSA/4.xlsx
+++ b/data/RSA/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Gender-classification-for-jobs\data\RSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0A213F-7EBD-478A-87E8-198568FFC17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7018BD95-0F61-4422-8575-3C1AED6873F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,216 +25,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
-  <si>
-    <t>Sno</t>
-  </si>
-  <si>
-    <t>Registration Number</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>18MIS0021</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>SOWMIYA S</t>
   </si>
   <si>
-    <t>18MIS0066</t>
-  </si>
-  <si>
     <t>Monishwar S</t>
   </si>
   <si>
-    <t>18MIS0076</t>
-  </si>
-  <si>
     <t>pentapati Datta sai sarath</t>
   </si>
   <si>
-    <t>18MIS0147</t>
-  </si>
-  <si>
     <t>Harini J</t>
   </si>
   <si>
-    <t>18MIS0160</t>
-  </si>
-  <si>
     <t>M Thanuja</t>
   </si>
   <si>
-    <t>18MIS0184</t>
-  </si>
-  <si>
     <t>RAMYADEVI B</t>
   </si>
   <si>
-    <t>18MIS0211</t>
-  </si>
-  <si>
     <t>MYTHILI SHANKAR RAJINI</t>
   </si>
   <si>
-    <t>18MIS0236</t>
-  </si>
-  <si>
     <t>S.B.Varshinipriya .</t>
   </si>
   <si>
-    <t>18MIS0243</t>
-  </si>
-  <si>
     <t>Kondeti Sai Lavanya .</t>
   </si>
   <si>
-    <t>18MIS0264</t>
-  </si>
-  <si>
     <t>Snehavilashini R</t>
   </si>
   <si>
-    <t>18MIS0288</t>
-  </si>
-  <si>
     <t>SHARU MATHI V</t>
   </si>
   <si>
-    <t>18MIS0292</t>
-  </si>
-  <si>
     <t>J THARAKA</t>
   </si>
   <si>
-    <t>18MIS0349</t>
-  </si>
-  <si>
     <t>Praveen A</t>
   </si>
   <si>
-    <t>18MIS0356</t>
-  </si>
-  <si>
     <t>K Sai Sujana .</t>
   </si>
   <si>
-    <t>18MIS0364</t>
-  </si>
-  <si>
     <t>Maran Arunmozhi</t>
   </si>
   <si>
-    <t>18MIS0390</t>
-  </si>
-  <si>
     <t>Kiruthiga S</t>
   </si>
   <si>
-    <t>18MIS0404</t>
-  </si>
-  <si>
     <t>Yamini M</t>
   </si>
   <si>
-    <t>18MIS0411</t>
-  </si>
-  <si>
     <t>SOLOMON REX S S .</t>
   </si>
   <si>
-    <t>18MIS1024</t>
-  </si>
-  <si>
     <t>MANCHIKANTI BHUMIKA .</t>
   </si>
   <si>
-    <t>18MIS7030</t>
-  </si>
-  <si>
     <t>G SAI PAVAN .</t>
   </si>
   <si>
-    <t>18MIS7033</t>
-  </si>
-  <si>
     <t>THOTA VARUN .</t>
   </si>
   <si>
-    <t>18MIS7049</t>
-  </si>
-  <si>
     <t>SHIKHIN SHARMA .</t>
   </si>
   <si>
-    <t>18MIS7073</t>
-  </si>
-  <si>
     <t>BIJINIPALLI RAKESH .</t>
   </si>
   <si>
-    <t>18MIS7085</t>
-  </si>
-  <si>
     <t>K SAI SUNEETH</t>
   </si>
   <si>
-    <t>18MIS7093</t>
-  </si>
-  <si>
     <t>NANDIMANDALAM SATHWIKA .</t>
   </si>
   <si>
-    <t>18MIS7116</t>
-  </si>
-  <si>
     <t>NAGA PRANATHI GOLLAPUDI</t>
   </si>
   <si>
-    <t>18MIS7144</t>
-  </si>
-  <si>
     <t>GUNDAVARAPU MOUNIKA SATYA VANI .</t>
   </si>
   <si>
-    <t>18MIS7156</t>
-  </si>
-  <si>
     <t>JONNALAGADDA RISHITHA .</t>
   </si>
   <si>
-    <t>18MIS7168</t>
-  </si>
-  <si>
     <t>RAVELLA NIKHITA CHOWDARY .</t>
   </si>
   <si>
-    <t>18MIS7219</t>
-  </si>
-  <si>
     <t>BANDA SWATHI</t>
   </si>
   <si>
-    <t>21MCF10009</t>
-  </si>
-  <si>
     <t>Syed Aqsa Ahmed .</t>
   </si>
   <si>
-    <t>21MCS0011</t>
-  </si>
-  <si>
     <t>Vasu Chaniyara</t>
   </si>
   <si>
-    <t>21MPC1011</t>
-  </si>
-  <si>
     <t>Debabrata Tah</t>
-  </si>
-  <si>
-    <t>21MPC1014</t>
   </si>
   <si>
     <t>Pallavi Zate</t>
@@ -259,7 +148,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,60 +161,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -343,18 +185,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,397 +470,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="4" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="5" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="6" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="7" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="8" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="9" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="10" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="11" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="12" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="13" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="14" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="15" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="16" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="18" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
+    </row>
+    <row r="19" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="20" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
+    </row>
+    <row r="21" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="22" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="23" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="24" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+    </row>
+    <row r="25" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="26" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
+    </row>
+    <row r="27" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="28" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4" t="s">
+    </row>
+    <row r="29" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="30" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+    </row>
+    <row r="31" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="32" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="4" t="s">
+    </row>
+    <row r="33" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="34" spans="1:1" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
